--- a/Métodos Estadísticos  posgrado/tarea 1/tarea1.xlsx
+++ b/Métodos Estadísticos  posgrado/tarea 1/tarea1.xlsx
@@ -1,32 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\METODOSESTADISTICOS\CLASE2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\GitHub\Metodos-estadisticos\Métodos Estadísticos  posgrado\tarea 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED197DE-D0E7-424F-BEE7-8AD69A1565C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21000" windowHeight="11985" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="empresa" sheetId="1" r:id="rId1"/>
     <sheet name="fresa" sheetId="2" r:id="rId2"/>
     <sheet name="cardones" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="35">
   <si>
     <t>jornada</t>
   </si>
@@ -126,11 +136,17 @@
   <si>
     <t>sitio</t>
   </si>
+  <si>
+    <t xml:space="preserve"># de intervalos </t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -459,16 +475,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -496,7 +516,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -509,8 +529,15 @@
       <c r="D3">
         <v>50000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3">
+        <f>COUNT(D2:D91)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -523,8 +550,15 @@
       <c r="D4">
         <v>60000</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4">
+        <f>1+(3.332*LOG10(G3))</f>
+        <v>7.5115360414518308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -538,7 +572,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -552,7 +586,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -566,7 +600,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -580,7 +614,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -594,7 +628,7 @@
         <v>73000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -608,7 +642,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -622,7 +656,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -636,7 +670,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -650,7 +684,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -664,7 +698,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -678,7 +712,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1748,10 +1782,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
@@ -12133,7 +12167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
